--- a/ql_shop_fashion/GUI/bin/Debug/ThongKe.xlsx
+++ b/ql_shop_fashion/GUI/bin/Debug/ThongKe.xlsx
@@ -5,38 +5,28 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Thống kê năm" sheetId="1" r:id="rId1"/>
-    <sheet name="Dữ liệu đổi trả" sheetId="2" r:id="rId3"/>
+    <sheet name="Thống kê tháng" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Dữ liệu thống kê bán hàng theo năm</t>
+    <t>Dữ liệu thống kê bán hàng theo tháng</t>
   </si>
   <si>
-    <t>Năm</t>
+    <t>Tháng</t>
   </si>
   <si>
     <t>Tổng Sản Phẩm</t>
   </si>
   <si>
-    <t>Tổng Doanh Thu</t>
+    <t>Tổng Tiền</t>
   </si>
   <si>
-    <t>Dữ liệu thống kê đổi trả theo năm</t>
-  </si>
-  <si>
-    <t>Tổng Số Lượng Trả</t>
-  </si>
-  <si>
-    <t>Tổng Tiền Hoàn Trả</t>
-  </si>
-  <si>
-    <t>2024</t>
+    <t>11/2024</t>
   </si>
 </sst>
 </file>
@@ -137,56 +127,18 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="11972058" cy="3955123"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" descr="" name="ChartImage"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A23:C26"/>
+  <dimension ref="A23:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.5894034249442" customWidth="1"/>
+    <col min="1" max="1" width="44.0828944614955" customWidth="1"/>
     <col min="2" max="2" width="15.7685982840402" customWidth="1"/>
-    <col min="3" max="3" width="16.7674822126116" customWidth="1"/>
+    <col min="3" max="3" width="10.296501159668" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="23">
@@ -206,72 +158,14 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0">
-        <v>2023</v>
+      <c r="A25" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="B25" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0">
-        <v>1175100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>2024</v>
-      </c>
-      <c r="B26" s="0">
-        <v>78</v>
-      </c>
-      <c r="C26" s="0">
-        <v>9297327.61</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName=""/>
-  <dimension ref="A23:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="39.6779479980469" customWidth="1"/>
-    <col min="2" max="2" width="19.1011853899275" customWidth="1"/>
-    <col min="3" max="3" width="19.7016318184989" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="0">
-        <v>3</v>
-      </c>
-      <c r="C25" s="0">
-        <v>150000</v>
+        <v>10377.61</v>
       </c>
     </row>
   </sheetData>
